--- a/BalanceSheet/SNPS_bal.xlsx
+++ b/BalanceSheet/SNPS_bal.xlsx
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-37764000.0</v>
+        <v>231000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-37984000.0</v>
+        <v>192000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>7056000.0</v>
+        <v>160000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-18794000.0</v>
+        <v>166000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-5302000.0</v>
+        <v>148000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>141518000.0</v>
@@ -1926,19 +1926,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>-171137000.0</v>
+        <v>25000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>69931000.0</v>
+        <v>30000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>122831000.0</v>
+        <v>37000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>53825000.0</v>
+        <v>52000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>-132814000.0</v>
+        <v>27000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>506459000.0</v>
@@ -3008,19 +3008,19 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>-20222000.0</v>
+        <v>-523000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>-37152000.0</v>
+        <v>-498000000.0</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>-36693000.0</v>
+        <v>-464000000.0</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>-19987000.0</v>
+        <v>-430000000.0</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>-17694000.0</v>
+        <v>-407000000.0</v>
       </c>
       <c r="G22" s="0" t="inlineStr">
         <is>
